--- a/build/config/excel/Scene.xlsx
+++ b/build/config/excel/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\Squick\build\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\squick\build\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C015371-0361-4522-A0BB-426947D04928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB32AEE-67C7-4F85-840A-B874FA4DB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="889" yWindow="4107" windowWidth="31167" windowHeight="14187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2442" yWindow="3882" windowWidth="31166" windowHeight="14187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -130,9 +130,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>villageScene1</t>
-  </si>
-  <si>
     <t>0,0.5,0;1,0.5,1;2,0.5,3</t>
   </si>
   <si>
@@ -140,240 +137,21 @@
   </si>
   <si>
     <t>Sources/Music/Town</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UI/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ChronoBlade_forest_wallpaper</t>
-    </r>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>villageScene2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>villageScene3</t>
-  </si>
-  <si>
-    <t>10,5.5,7.74;8.7,5.5,10.65;12.42.5,7.42</t>
-  </si>
-  <si>
-    <t>24.45,5.5,25.86;22.85,5.5,26.7;26.13,5.5,23.43</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>villageScene4</t>
-  </si>
-  <si>
-    <t>10,5.5,10.1;11.2,5.5,9;8.9,5.5,8.7</t>
-  </si>
-  <si>
-    <t>23.2,5.5,23.9;22.4,5.5,25;25.2,5.5,25.2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>villageScene5</t>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>villageScene6</t>
-  </si>
-  <si>
-    <t>25,5.5,25;25,5.5,26;24,5.5,25</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>villageScene7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>villageScene8</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>villageScene101</t>
-  </si>
-  <si>
-    <t>24,5.5,28;32,5.5,28;28,5.5,24;28,5.5,32</t>
-  </si>
-  <si>
-    <t>28,5.5,7;30,5.5,7;25,5.5,7;28,5.5,10;50,5.5,26;47,5.5,28;46,5.5,26;21,5.5,47;21,5.5,44;18,5.5,43.5;20,5.5,50;40.5,5.5,43.5;5.5,5.5,29;7,5.5,19;5.5,5.5,23;9,5.5,12</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>villageScene102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>villageScene103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>villageScene104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>villageScene105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>villageScene106</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>villageScene201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>villageScene202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>villageScene203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>villageScene204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>villageScene205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>villageScene206</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>villageScene1000</t>
-  </si>
-  <si>
-    <t>23.5,6.5,37;30,6.5,29</t>
   </si>
   <si>
     <t>../config/ini/Scene/1.xml</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>../config/ini/Scene/2.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/3.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/4.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/5.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/6.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/7.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Scene/8.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>../config/ini/Navigation/1.xml</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>../config/ini/Navigation/2.xml</t>
+    <t>World</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>../config/ini/Navigation/3.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/4.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/5.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/6.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/7.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/8.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>../config/ini/Navigation/srv_demo.navmesh</t>
+    <t>UI/ChronoBlade_forest_wallpaper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +381,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -1495,11 +1276,11 @@
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D11">
         <v>99999</v>
@@ -1508,22 +1289,22 @@
         <v>1000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>500</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1534,1041 +1315,239 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>40</v>
+      <c r="O11" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="14" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>99999</v>
-      </c>
-      <c r="E12">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12">
-        <v>500</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>99999</v>
-      </c>
-      <c r="E13">
-        <v>1001</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13">
-        <v>500</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>99999</v>
-      </c>
-      <c r="E14">
-        <v>1002</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>500</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>99999</v>
-      </c>
-      <c r="E15">
-        <v>1003</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15">
-        <v>500</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>99999</v>
-      </c>
-      <c r="E16">
-        <v>1004</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16">
-        <v>500</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>99999</v>
-      </c>
-      <c r="E17">
-        <v>1004</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17">
-        <v>500</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>99999</v>
-      </c>
-      <c r="E18">
-        <v>1004</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>500</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19">
-        <v>99999</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19">
-        <v>500</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20">
-        <v>99999</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20">
-        <v>500</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>99999</v>
-      </c>
-      <c r="E21">
-        <v>1001</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21">
-        <v>500</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22">
-        <v>99999</v>
-      </c>
-      <c r="E22">
-        <v>1002</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22">
-        <v>500</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23">
-        <v>99999</v>
-      </c>
-      <c r="E23">
-        <v>1003</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23">
-        <v>500</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24">
-        <v>99999</v>
-      </c>
-      <c r="E24">
-        <v>1004</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24">
-        <v>500</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25">
-        <v>99999</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25">
-        <v>500</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>99999</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26">
-        <v>500</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>23</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27">
-        <v>99999</v>
-      </c>
-      <c r="E27">
-        <v>1001</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27">
-        <v>500</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>23</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28">
-        <v>99999</v>
-      </c>
-      <c r="E28">
-        <v>1002</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28">
-        <v>500</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29">
-        <v>99999</v>
-      </c>
-      <c r="E29">
-        <v>1003</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29">
-        <v>500</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>23</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30">
-        <v>99999</v>
-      </c>
-      <c r="E30">
-        <v>1004</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30">
-        <v>500</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>23</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>500</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9 I7:I9 M7:M9 B7:G9 J7:L9 N7:O9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
